--- a/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>JZXN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +712,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -740,26 +744,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -769,26 +776,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,26 +963,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,26 +993,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,13 +1041,14 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1025,8 +1059,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1037,26 +1071,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,8 +1103,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,26 +1135,29 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,25 +1167,28 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>100</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,26 +1231,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1211,26 +1263,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1240,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,13 +1423,16 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1373,8 +1443,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1385,26 +1455,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,26 +1519,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,31 +1551,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1506,8 +1588,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,8 +1618,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1541,10 +1628,10 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,8 +1680,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1599,11 +1692,11 @@
         <v>800</v>
       </c>
       <c r="E43" s="3">
+        <v>800</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1619,8 +1712,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1630,8 +1726,8 @@
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1648,19 +1744,22 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1677,8 +1776,11 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1686,11 +1788,11 @@
         <v>1000</v>
       </c>
       <c r="E46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,20 +1808,23 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E47" s="3">
         <v>800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,8 +1840,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1746,8 +1854,8 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1764,8 +1872,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1775,8 +1886,8 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1862,8 +1982,8 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,20 +2032,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="E54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,8 +2094,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1975,8 +2106,8 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1993,8 +2124,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2022,20 +2156,23 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,20 +2188,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,8 +2220,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,8 +2252,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,19 +2380,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
-        <v>500</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+      <c r="F66" s="3">
+        <v>400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,20 +2554,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>600</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,19 +2682,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1200</v>
       </c>
-      <c r="E76" s="3">
-        <v>700</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+      <c r="F76" s="3">
+        <v>600</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,31 +2746,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2591,26 +2783,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2620,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,22 +2831,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2662,8 +2861,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,23 +3021,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,22 +3069,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,22 +3163,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2965,8 +3195,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,23 +3337,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3123,22 +3369,25 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3152,22 +3401,25 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>-100</v>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>-100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3179,6 +3431,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>JZXN</t>
   </si>
@@ -730,7 +730,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H8" s="3">
         <v>600</v>
@@ -969,8 +969,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
@@ -1001,8 +1001,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>300</v>
       </c>
       <c r="E18" s="3">
         <v>700</v>
@@ -1047,8 +1047,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1079,14 +1079,14 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>300</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3">
         <v>600</v>
@@ -1239,8 +1239,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>200</v>
       </c>
       <c r="E26" s="3">
         <v>500</v>
@@ -1271,8 +1271,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>200</v>
       </c>
       <c r="E27" s="3">
         <v>500</v>
@@ -1431,8 +1431,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1463,8 +1463,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>200</v>
       </c>
       <c r="E33" s="3">
         <v>500</v>
@@ -1527,8 +1527,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>200</v>
       </c>
       <c r="E35" s="3">
         <v>500</v>
@@ -1689,7 +1689,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E43" s="3">
         <v>800</v>
@@ -2041,10 +2041,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E54" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F54" s="3">
         <v>1100</v>
@@ -2196,8 +2196,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>700</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
@@ -2395,7 +2395,7 @@
         <v>600</v>
       </c>
       <c r="F66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2697,7 +2697,7 @@
         <v>1200</v>
       </c>
       <c r="F76" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2791,8 +2791,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>200</v>
       </c>
       <c r="E81" s="3">
         <v>500</v>
@@ -2843,8 +2843,8 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3035,8 +3035,8 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
@@ -3081,8 +3081,8 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3177,8 +3177,8 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3345,14 +3345,14 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -3383,8 +3383,8 @@
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3409,14 +3409,14 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3">
-        <v>-100</v>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>

--- a/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
   <si>
     <t>JZXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,48 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,29 +716,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -747,29 +751,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,29 +786,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -811,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,29 +990,30 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -996,29 +1023,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1028,8 +1058,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,13 +1075,14 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1062,8 +1096,8 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1074,29 +1108,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1106,8 +1143,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,29 +1178,32 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1170,8 +1213,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1179,19 +1225,19 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>100</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1202,8 +1248,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,29 +1283,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,29 +1318,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1298,8 +1353,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,13 +1493,16 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1446,8 +1516,8 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1458,29 +1528,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1490,8 +1563,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,29 +1598,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1554,34 +1633,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1591,8 +1673,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,22 +1705,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1651,8 +1738,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,23 +1773,26 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,8 +1808,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1729,8 +1825,8 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1747,22 +1843,25 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1779,23 +1878,26 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="E46" s="3">
         <v>1000</v>
       </c>
       <c r="F46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,23 +1913,26 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F47" s="3">
         <v>800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1843,13 +1948,16 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -1857,8 +1965,8 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1875,8 +1983,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1889,8 +2000,8 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1907,8 +2018,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,13 +2088,16 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -1985,8 +2105,8 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2003,8 +2123,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,23 +2158,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,8 +2193,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,8 +2225,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2109,8 +2240,8 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2127,8 +2258,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2159,23 +2293,26 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,23 +2328,26 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,8 +2363,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2255,8 +2398,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2287,8 +2433,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,23 +2538,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2573,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,23 +2728,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2763,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,23 +2868,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>700</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +2903,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,34 +2938,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2786,29 +2978,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,8 +3013,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,25 +3030,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2864,8 +3063,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,26 +3238,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3273,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,25 +3290,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3102,8 +3323,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,25 +3393,28 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3198,8 +3428,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,26 +3583,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3372,25 +3618,28 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3404,26 +3653,29 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3434,6 +3686,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
@@ -725,19 +725,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E8" s="3">
         <v>700</v>
       </c>
       <c r="F8" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I8" s="3">
         <v>600</v>
@@ -760,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -775,7 +775,7 @@
         <v>500</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -807,7 +807,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I10" s="3">
         <v>400</v>
@@ -996,8 +996,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>1200</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
@@ -1009,7 +1009,7 @@
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
@@ -1031,14 +1031,14 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>200</v>
       </c>
       <c r="E18" s="3">
         <v>300</v>
       </c>
       <c r="F18" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1081,8 +1081,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1116,8 +1116,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>200</v>
       </c>
       <c r="E21" s="3">
         <v>300</v>
@@ -1193,7 +1193,7 @@
         <v>300</v>
       </c>
       <c r="F23" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1291,8 +1291,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>200</v>
@@ -1326,8 +1326,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>200</v>
@@ -1501,8 +1501,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1536,8 +1536,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>200</v>
@@ -1606,8 +1606,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>200</v>
@@ -1712,7 +1712,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -1747,25 +1747,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1782,16 +1782,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="E43" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F43" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G43" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1852,7 +1852,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E46" s="3">
         <v>1000</v>
@@ -1922,10 +1922,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F47" s="3">
         <v>800</v>
@@ -1957,7 +1957,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2167,16 +2167,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="E54" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="F54" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2308,10 +2308,10 @@
         <v>700</v>
       </c>
       <c r="F59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2343,7 +2343,7 @@
         <v>700</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
@@ -2407,25 +2407,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2547,16 +2547,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F66" s="3">
         <v>600</v>
       </c>
       <c r="G66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2737,13 +2737,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1300</v>
       </c>
-      <c r="E72" s="3">
-        <v>1400</v>
-      </c>
       <c r="F72" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G72" s="3">
         <v>600</v>
@@ -2877,16 +2877,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E76" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F76" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G76" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2986,8 +2986,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>200</v>
@@ -3036,8 +3036,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3661,8 +3661,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>1000</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I18" s="3">
         <v>300</v>
@@ -1129,7 +1129,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I21" s="3">
         <v>300</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I23" s="3">
         <v>300</v>
@@ -1887,16 +1887,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E46" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F46" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -2173,7 +2173,7 @@
         <v>2100</v>
       </c>
       <c r="F54" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G54" s="3">
         <v>1000</v>
@@ -2877,7 +2877,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E76" s="3">
         <v>1400</v>

--- a/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>JZXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,51 +665,52 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,32 +720,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F8" s="3">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>1200</v>
-      </c>
       <c r="I8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -754,32 +758,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>500</v>
-      </c>
       <c r="I9" s="3">
+        <v>400</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -789,31 +796,34 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>400</v>
+      </c>
+      <c r="G10" s="3">
+        <v>800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
-        <v>500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>900</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>400</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="J10" s="3">
+        <v>300</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -824,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,32 +1017,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
-        <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1026,32 +1053,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1061,8 +1091,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,13 +1109,14 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1099,8 +1133,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1111,32 +1145,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
+        <v>200</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>500</v>
+      </c>
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
-        <v>500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,31 +1183,34 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1181,32 +1221,35 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>500</v>
+      </c>
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
-        <v>600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>300</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,13 +1259,16 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1231,16 +1277,16 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>100</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,32 +1335,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>400</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,32 +1373,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1356,8 +1411,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,13 +1563,16 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1519,8 +1589,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1531,32 +1601,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1566,8 +1639,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,32 +1677,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1636,37 +1715,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1676,8 +1758,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,25 +1792,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1741,17 +1828,20 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>300</v>
+      </c>
+      <c r="E42" s="3">
         <v>200</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1767,8 +1857,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1776,26 +1866,29 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="E43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,13 +1904,16 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -1828,8 +1924,8 @@
       <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1846,25 +1942,28 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1881,8 +1980,11 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1890,17 +1992,17 @@
         <v>3200</v>
       </c>
       <c r="E46" s="3">
-        <v>900</v>
+        <v>3100</v>
       </c>
       <c r="F46" s="3">
         <v>900</v>
       </c>
       <c r="G46" s="3">
+        <v>900</v>
+      </c>
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,26 +2018,29 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>400</v>
+      </c>
+      <c r="E47" s="3">
         <v>600</v>
       </c>
-      <c r="E47" s="3">
-        <v>1200</v>
-      </c>
       <c r="F47" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="G47" s="3">
+        <v>700</v>
+      </c>
+      <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1951,25 +2056,28 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2003,8 +2114,8 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2100,7 +2220,7 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2108,8 +2228,8 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,26 +2284,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="E54" s="3">
-        <v>2100</v>
+        <v>3900</v>
       </c>
       <c r="F54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,8 +2356,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2243,8 +2374,8 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2261,31 +2392,34 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2296,26 +2430,29 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
-        <v>700</v>
-      </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,25 +2468,28 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
-        <v>700</v>
-      </c>
       <c r="F60" s="3">
+        <v>600</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
-        <v>400</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+      <c r="H60" s="3">
+        <v>300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2366,8 +2506,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,17 +2544,20 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,8 +2573,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,26 +2696,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="E66" s="3">
+        <v>800</v>
+      </c>
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,26 +2902,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1200</v>
       </c>
-      <c r="E72" s="3">
-        <v>1300</v>
-      </c>
       <c r="F72" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G72" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H72" s="3">
         <v>600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,26 +3054,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="E76" s="3">
-        <v>1400</v>
+        <v>3100</v>
       </c>
       <c r="F76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>600</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,37 +3130,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2981,32 +3173,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3016,8 +3211,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3042,17 +3241,17 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,29 +3455,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3276,8 +3493,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3302,17 +3523,17 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3326,8 +3547,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,28 +3623,31 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3431,8 +3661,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,29 +3829,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3621,28 +3867,31 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3656,29 +3905,32 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1000</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3689,6 +3941,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
@@ -732,13 +732,13 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F8" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G8" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
@@ -808,13 +808,13 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F10" s="3">
         <v>400</v>
       </c>
       <c r="G10" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
@@ -1024,16 +1024,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E17" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1062,7 +1062,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E18" s="3">
         <v>200</v>
@@ -1154,13 +1154,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
       </c>
       <c r="F21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1236,7 +1236,7 @@
         <v>200</v>
       </c>
       <c r="F23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G23" s="3">
         <v>600</v>
@@ -1344,7 +1344,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J26" s="3">
         <v>200</v>
@@ -1382,7 +1382,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
@@ -1610,7 +1610,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
@@ -1686,7 +1686,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
@@ -1799,10 +1799,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E41" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -1875,10 +1875,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E43" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F43" s="3">
         <v>800</v>
@@ -1989,10 +1989,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E46" s="3">
         <v>3200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>3100</v>
       </c>
       <c r="F46" s="3">
         <v>900</v>
@@ -2036,7 +2036,7 @@
         <v>1100</v>
       </c>
       <c r="G47" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
@@ -2065,7 +2065,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2293,13 +2293,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="E54" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F54" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G54" s="3">
         <v>1700</v>
@@ -2445,7 +2445,7 @@
         <v>600</v>
       </c>
       <c r="F59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>500</v>
@@ -2477,19 +2477,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2708,7 +2708,7 @@
         <v>1600</v>
       </c>
       <c r="E66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
@@ -2917,10 +2917,10 @@
         <v>1200</v>
       </c>
       <c r="F72" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G72" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H72" s="3">
         <v>600</v>
@@ -3063,13 +3063,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E76" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F76" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G76" s="3">
         <v>1100</v>
@@ -3182,7 +3182,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>

--- a/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>JZXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,56 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,35 +724,38 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -761,35 +765,38 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,35 +806,38 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,35 +1044,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1500</v>
+        <v>3300</v>
       </c>
       <c r="E17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>600</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,35 +1083,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,8 +1124,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,7 +1153,7 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1136,8 +1170,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1148,35 +1182,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,17 +1223,20 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1212,8 +1252,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1224,35 +1264,38 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>500</v>
+      </c>
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
-        <v>600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>300</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,8 +1305,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1271,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1280,16 +1326,16 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>100</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,35 +1387,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-800</v>
+        <v>-2400</v>
       </c>
       <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1376,35 +1428,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-800</v>
+        <v>-2400</v>
       </c>
       <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1469,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,7 +1645,7 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1592,8 +1662,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1604,35 +1674,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-800</v>
+        <v>-2400</v>
       </c>
       <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1642,8 +1715,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,35 +1756,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-800</v>
+        <v>-2400</v>
       </c>
       <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,40 +1797,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1761,8 +1843,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,28 +1879,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1831,20 +1918,23 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
         <v>300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1860,8 +1950,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1869,29 +1959,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="E43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1916,7 +2012,7 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -1927,8 +2023,8 @@
       <c r="H44" s="3">
         <v>0</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1945,28 +2041,31 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1983,29 +2082,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>3300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>900</v>
       </c>
       <c r="G46" s="3">
         <v>900</v>
       </c>
       <c r="H46" s="3">
+        <v>900</v>
+      </c>
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,29 +2123,32 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2059,8 +2164,11 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2071,7 +2179,7 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2079,8 +2187,8 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2117,8 +2228,8 @@
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,19 +2328,22 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2231,8 +2351,8 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2410,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F54" s="3">
         <v>4000</v>
       </c>
-      <c r="E54" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2377,8 +2508,8 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2395,17 +2526,20 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2421,8 +2555,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2433,8 +2567,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2442,20 +2579,20 @@
         <v>800</v>
       </c>
       <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
-        <v>700</v>
-      </c>
       <c r="G59" s="3">
+        <v>600</v>
+      </c>
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,28 +2608,31 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
-        <v>400</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2509,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,20 +2690,23 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2722,8 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2854,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,29 +3076,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E72" s="3">
         <v>400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3240,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2300</v>
       </c>
-      <c r="E76" s="3">
-        <v>3200</v>
-      </c>
       <c r="F76" s="3">
-        <v>1400</v>
+        <v>3100</v>
       </c>
       <c r="G76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H76" s="3">
         <v>1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,40 +3322,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3176,35 +3368,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-800</v>
+        <v>-2400</v>
       </c>
       <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3214,8 +3409,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3244,17 +3443,17 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,32 +3672,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,31 +3853,34 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,32 +4075,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3870,31 +4116,34 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3908,32 +4157,35 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>0</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
@@ -739,13 +739,13 @@
         <v>600</v>
       </c>
       <c r="F8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H8" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
@@ -821,13 +821,13 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G10" s="3">
         <v>400</v>
       </c>
       <c r="H10" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
@@ -1051,13 +1051,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E17" s="3">
         <v>1400</v>
       </c>
       <c r="F17" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
@@ -1095,13 +1095,13 @@
         <v>-2400</v>
       </c>
       <c r="E18" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F18" s="3">
         <v>200</v>
       </c>
       <c r="G18" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H18" s="3">
         <v>600</v>
@@ -1191,16 +1191,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="E21" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F21" s="3">
         <v>200</v>
       </c>
       <c r="G21" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1273,7 +1273,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="E23" s="3">
         <v>-700</v>
@@ -1396,7 +1396,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="E26" s="3">
         <v>-700</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K26" s="3">
         <v>200</v>
@@ -1437,7 +1437,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="E27" s="3">
         <v>-700</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K27" s="3">
         <v>200</v>
@@ -1683,7 +1683,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="E33" s="3">
         <v>-700</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K33" s="3">
         <v>200</v>
@@ -1765,7 +1765,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="E35" s="3">
         <v>-700</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K35" s="3">
         <v>200</v>
@@ -1974,7 +1974,7 @@
         <v>1500</v>
       </c>
       <c r="F43" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G43" s="3">
         <v>800</v>
@@ -2053,7 +2053,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -2094,10 +2094,10 @@
         <v>1700</v>
       </c>
       <c r="E46" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F46" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G46" s="3">
         <v>900</v>
@@ -2144,7 +2144,7 @@
         <v>1100</v>
       </c>
       <c r="H47" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
@@ -2176,7 +2176,7 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -2419,19 +2419,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F54" s="3">
         <v>3900</v>
       </c>
-      <c r="F54" s="3">
-        <v>4000</v>
-      </c>
       <c r="G54" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H54" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I54" s="3">
         <v>1000</v>
@@ -2579,10 +2579,10 @@
         <v>800</v>
       </c>
       <c r="E59" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
@@ -2617,16 +2617,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
       </c>
       <c r="G60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H60" s="3">
         <v>500</v>
@@ -2705,7 +2705,7 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2869,7 +2869,7 @@
         <v>1600</v>
       </c>
       <c r="F66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G66" s="3">
         <v>700</v>
@@ -3094,10 +3094,10 @@
         <v>1200</v>
       </c>
       <c r="G72" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H72" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I72" s="3">
         <v>600</v>
@@ -3252,10 +3252,10 @@
         <v>800</v>
       </c>
       <c r="E76" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F76" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G76" s="3">
         <v>1300</v>
@@ -3377,7 +3377,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="E81" s="3">
         <v>-700</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K81" s="3">
         <v>200</v>
@@ -3681,7 +3681,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E89" s="3">
         <v>-600</v>
@@ -3699,7 +3699,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JZXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>JZXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,60 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,38 +728,41 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,38 +772,41 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,29 +828,29 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,38 +1071,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1086,38 +1113,41 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>200</v>
       </c>
       <c r="G18" s="3">
         <v>200</v>
       </c>
       <c r="H18" s="3">
+        <v>200</v>
+      </c>
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,19 +1177,20 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1173,8 +1207,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1185,38 +1219,41 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>200</v>
       </c>
       <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3">
+        <v>200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,20 +1263,23 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1255,8 +1295,8 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1267,38 +1307,41 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>200</v>
       </c>
       <c r="G23" s="3">
         <v>200</v>
       </c>
       <c r="H23" s="3">
+        <v>200</v>
+      </c>
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1308,8 +1351,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1320,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1329,16 +1375,16 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>100</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,38 +1439,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1431,38 +1483,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,8 +1527,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,19 +1703,22 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1665,8 +1735,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1677,38 +1747,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,8 +1791,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,38 +1835,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,43 +1879,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1846,8 +1928,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,31 +1966,32 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1921,23 +2008,26 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1953,8 +2043,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1962,32 +2052,35 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2015,7 +2111,7 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2026,8 +2122,8 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -2044,31 +2140,34 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2085,32 +2184,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>900</v>
       </c>
       <c r="H46" s="3">
         <v>900</v>
       </c>
       <c r="I46" s="3">
+        <v>900</v>
+      </c>
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,32 +2228,35 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2176,22 +2284,22 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2231,8 +2342,8 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2340,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2354,8 +2474,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,32 +2536,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2511,8 +2642,8 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2529,20 +2660,23 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2558,8 +2692,8 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2570,8 +2704,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2579,23 +2716,23 @@
         <v>800</v>
       </c>
       <c r="E59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F59" s="3">
+        <v>800</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,32 +2748,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
       </c>
       <c r="H60" s="3">
+        <v>600</v>
+      </c>
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2702,13 +2848,13 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2725,8 +2871,8 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,32 +3012,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,32 +3250,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1200</v>
       </c>
       <c r="G72" s="3">
         <v>1200</v>
       </c>
       <c r="H72" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I72" s="3">
         <v>1000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,32 +3426,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>500</v>
+      </c>
+      <c r="E76" s="3">
         <v>800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,43 +3514,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3371,38 +3563,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3412,8 +3607,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3446,17 +3645,17 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,35 +3889,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3745,11 +3966,11 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -3759,8 +3980,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,34 +4083,37 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,35 +4321,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4128,25 +4377,25 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -4160,35 +4409,38 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
